--- a/doc/ES232/ES232_WRITE_REG.xlsx
+++ b/doc/ES232/ES232_WRITE_REG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ARM\ut61-ep_mode\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ARM\openDMM_UT61Eplus\doc\ES232\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF92623A-F870-4933-9362-4263B97EA764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84541CE-5AFE-4AFF-BA9B-2F96CF17D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="2520" windowWidth="16650" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1635" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
+    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="F3" s="2">
         <f>INT(MOD(K3, 32)/16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <f>INT(MOD(K3, 16)/8)</f>
@@ -647,7 +647,7 @@
       </c>
       <c r="K3">
         <f>HEX2DEC(B3)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
